--- a/biology/Botanique/Tecophilaeaceae/Tecophilaeaceae.xlsx
+++ b/biology/Botanique/Tecophilaeaceae/Tecophilaeaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Técophilaeacées regroupe des plantes monocotylédones. Elle comprend environ deux douzaines d'espèces réparties en 7-9 genres.
 Ce sont des plantes herbacées, pérennes.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Tecophilaea donné par le botaniste italien Luigi Aloysius Colla (1766–1848) en hommage 
-à sa fille, artiste botanique, Tecophila Colla-Billotti[1]. Billotti qui trouva cette plante en 1836, en attribua le genre sur la suggestion du physicien et botaniste Carlo Luigi Giuseppe Bertero (1789-1831).
+à sa fille, artiste botanique, Tecophila Colla-Billotti. Billotti qui trouva cette plante en 1836, en attribua le genre sur la suggestion du physicien et botaniste Carlo Luigi Giuseppe Bertero (1789-1831).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2] cette famille inclut le genre Cyanastrum qui est accepté comme la famille Cyanastracées dans la classification classique de Cronquist (1981)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003) cette famille inclut le genre Cyanastrum qui est accepté comme la famille Cyanastracées dans la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 Conanthera Ruiz &amp; Pav. (1802)
 Cyanastrum Oliv. (1891)
 Cyanella (en) Royen ex L. (1754)
@@ -587,7 +605,7 @@
 Tecophilaea (en) Bertero ex Colla (1836)
 Walleria (en) J.Kirk (1864)
 Zephyra (en) D.Don (1832)
-Selon Angiosperm Phylogeny Website                        (18 mai 2010)[5] :
+Selon Angiosperm Phylogeny Website                        (18 mai 2010) :
 Conanthera Ruiz &amp; Pavon
 Cyanastrum Oliv.
 Cyanella Royen ex L.
@@ -595,7 +613,7 @@
 Tecophilaea (en) Bertero ex Colla
 Walleria J.Kirk
 Zephyra D.Don
-Selon NCBI  (16 avr. 2010)[6] :
+Selon NCBI  (16 avr. 2010) :
 Conanthera
 Cyanastrum
 Cyanella
@@ -604,7 +622,7 @@
 Tecophilaea
 Walleria
 Zephyra
-Selon DELTA Angio           (16 avr. 2010)[7] :
+Selon DELTA Angio           (16 avr. 2010) :
 Conanthera
 Cyanella
 Lanaria
@@ -640,9 +658,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (16 avr. 2010) :
 genre Conanthera Ruiz &amp; Pav. (1802)
 Conanthera bifolia  Ruiz &amp; Pav. (1802)
 Conanthera campanulata  Lindl. (1826)
@@ -677,7 +697,7 @@
 genre Zephyra D.Don (1832)
 Zephyra compacta  C.Ehrh. (2001)
 Zephyra elegans  D.Don (1832)
-Selon NCBI  (16 avr. 2010)[6] :
+Selon NCBI  (16 avr. 2010) :
 genre Conanthera
 Conanthera biflora
 Conanthera campanulata
